--- a/Assesment/Assesment.xlsx
+++ b/Assesment/Assesment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -5891,7 +5891,7 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -7991,7 +7991,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
